--- a/xlsx/打印维基百科_intext.xlsx
+++ b/xlsx/打印维基百科_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>打印维基百科</t>
   </si>
@@ -29,13 +29,13 @@
     <t>en-Michael Mandiberg</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_打印维基百科</t>
+    <t>政策_政策_维基百科_打印维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E7%99%BE%E7%A7%91%E5%85%A8%E4%B9%A6</t>
@@ -47,27 +47,24 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%9B%AE</t>
   </si>
   <si>
-    <t>條目</t>
+    <t>条目</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99%E6%9C%AC%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>紙本維基百科</t>
+    <t>纸本维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>维基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/PDF</t>
@@ -669,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>21</v>
@@ -695,10 +692,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -724,10 +721,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -753,10 +750,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -782,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -811,10 +808,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
